--- a/en/examples/10/_images/images.xlsx
+++ b/en/examples/10/_images/images.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tikk91214\work\v6\project\nablarch-document\en\examples\10\_images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937FC25B-E768-427D-9A90-6B844332D970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5128020-796E-491E-8781-CA71C0727B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -186,9 +186,9 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ"/>
-              <a:cs typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Operation</a:t>
           </a:r>
@@ -197,9 +197,9 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ"/>
-              <a:cs typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t> Staff</a:t>
           </a:r>
@@ -207,9 +207,9 @@
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="+mj-lt"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:ea typeface="メイリオ"/>
-            <a:cs typeface="メイリオ"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -220,9 +220,9 @@
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="+mj-lt"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:ea typeface="メイリオ"/>
-            <a:cs typeface="メイリオ"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -288,9 +288,9 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ"/>
-              <a:cs typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Online Log </a:t>
           </a:r>
@@ -299,20 +299,20 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ"/>
-              <a:cs typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Develoment</a:t>
+            <a:t>Development</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ"/>
-              <a:cs typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t> Server</a:t>
           </a:r>
@@ -320,9 +320,9 @@
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="+mj-lt"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:ea typeface="メイリオ"/>
-            <a:cs typeface="メイリオ"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -377,22 +377,23 @@
         <a:effectLst/>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36000" tIns="46800" rIns="36000" bIns="46800" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="90000" tIns="46800" rIns="90000" bIns="46800" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr rtl="0"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
               <a:effectLst/>
-              <a:latin typeface="+mj-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Online Access Log Analysis Batch</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
             <a:effectLst/>
-            <a:latin typeface="+mj-lt"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -447,7 +448,7 @@
         <a:effectLst/>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36000" tIns="45720" rIns="36000" bIns="45720" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="90000" tIns="45720" rIns="90000" bIns="45720" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -458,9 +459,9 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ"/>
-              <a:cs typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Online Access Log</a:t>
           </a:r>
@@ -468,9 +469,9 @@
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="+mj-lt"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:ea typeface="メイリオ"/>
-            <a:cs typeface="メイリオ"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -525,7 +526,7 @@
         <a:effectLst/>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36000" tIns="46800" rIns="36000" bIns="46800" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="90000" tIns="46800" rIns="90000" bIns="46800" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -536,9 +537,9 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ"/>
-              <a:cs typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Online Access Log Analysis Result Aggregation Batch</a:t>
           </a:r>
@@ -546,9 +547,9 @@
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="+mj-lt"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:ea typeface="メイリオ"/>
-            <a:cs typeface="メイリオ"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -603,7 +604,7 @@
         <a:effectLst/>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36000" tIns="45720" rIns="36000" bIns="0" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="90000" tIns="45720" rIns="90000" bIns="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -614,9 +615,9 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ"/>
-              <a:cs typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Request Information Aggregation Results</a:t>
           </a:r>
@@ -624,9 +625,9 @@
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="+mj-lt"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:ea typeface="メイリオ"/>
-            <a:cs typeface="メイリオ"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -733,7 +734,7 @@
         <a:effectLst/>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36000" tIns="45720" rIns="36000" bIns="45720" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="90000" tIns="45720" rIns="90000" bIns="45720" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -744,19 +745,19 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ"/>
-              <a:cs typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Request Information Aggregation Result</a:t>
+            <a:t>Request Information Aggregation Results</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="+mj-lt"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:ea typeface="メイリオ"/>
-            <a:cs typeface="メイリオ"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -811,7 +812,7 @@
         <a:effectLst/>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36000" tIns="45720" rIns="36000" bIns="45720" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="90000" tIns="45720" rIns="90000" bIns="45720" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -822,9 +823,9 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ"/>
-              <a:cs typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Request Intermediate Information File</a:t>
           </a:r>
@@ -832,9 +833,9 @@
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="+mj-lt"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:ea typeface="メイリオ"/>
-            <a:cs typeface="メイリオ"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -889,7 +890,7 @@
         <a:effectLst/>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36000" tIns="45720" rIns="36000" bIns="0" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="72000" tIns="45720" rIns="72000" bIns="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -900,9 +901,9 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ"/>
-              <a:cs typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Request Intermediate Information File(Past Files)</a:t>
           </a:r>
@@ -1008,7 +1009,7 @@
         <a:effectLst/>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36000" tIns="45720" rIns="36000" bIns="45720" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="72000" tIns="45720" rIns="72000" bIns="45720" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -1019,9 +1020,9 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ"/>
-              <a:cs typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Output the following files</a:t>
           </a:r>
@@ -1035,9 +1036,9 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ"/>
-              <a:cs typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>*Hourly Aggregate Resluts</a:t>
           </a:r>
@@ -1051,9 +1052,9 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ"/>
-              <a:cs typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>*Daily Aggregate Results</a:t>
           </a:r>
@@ -1061,9 +1062,9 @@
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="+mj-lt"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:ea typeface="メイリオ"/>
-            <a:cs typeface="メイリオ"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1168,7 +1169,7 @@
         <a:effectLst/>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36000" tIns="45720" rIns="36000" bIns="45720" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="90000" tIns="45720" rIns="90000" bIns="45720" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -1179,9 +1180,9 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ"/>
-              <a:cs typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Online Access Log Aggregation Results Reports</a:t>
           </a:r>
@@ -1189,9 +1190,9 @@
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="+mj-lt"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:ea typeface="メイリオ"/>
-            <a:cs typeface="メイリオ"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1233,7 +1234,7 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 63580"/>
+            <a:gd name="adj1" fmla="val 38889"/>
           </a:avLst>
         </a:prstGeom>
         <a:noFill/>
@@ -3489,7 +3490,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AW31" sqref="AW31"/>
+      <selection activeCell="BC11" sqref="BC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
